--- a/exports/DataForAvi.xlsx
+++ b/exports/DataForAvi.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Energy_Gauss_Fit" sheetId="9" r:id="rId7"/>
     <sheet name="Duration_Gauss_Fit" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>-2_sigma</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Session #</t>
+  </si>
+  <si>
+    <t>Based on MONDAY data for dfSLC</t>
   </si>
 </sst>
 </file>
@@ -9436,13 +9439,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246933</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>8952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9474,13 +9477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>410058</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9508,6 +9511,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="0"/>
+          <a:ext cx="6780952" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9518,13 +9559,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>189790</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>8952</xdr:rowOff>
+      <xdr:rowOff>189927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9541,7 +9582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="180975"/>
           <a:ext cx="5676190" cy="4580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9555,13 +9596,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>429110</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9581,6 +9622,44 @@
         <a:xfrm>
           <a:off x="0" y="4762500"/>
           <a:ext cx="3477110" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="0"/>
+          <a:ext cx="6780952" cy="5628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -73203,11 +73282,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -73217,12 +73302,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/exports/DataForAvi.xlsx
+++ b/exports/DataForAvi.xlsx
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="767" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="960" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Wkdy-Hr" sheetId="4" r:id="rId1"/>
-    <sheet name="Sessions-Wkdy" sheetId="7" r:id="rId2"/>
-    <sheet name="Cnctd-Wkdy-Q" sheetId="1" r:id="rId3"/>
-    <sheet name="Wknd-Hr" sheetId="5" r:id="rId4"/>
-    <sheet name="Cnctd-Wknd-Q" sheetId="2" r:id="rId5"/>
-    <sheet name="Sessions" sheetId="8" r:id="rId6"/>
-    <sheet name="Energy_Gauss_Fit" sheetId="9" r:id="rId7"/>
-    <sheet name="Duration_Gauss_Fit" sheetId="10" r:id="rId8"/>
+    <sheet name="Cnctd-Wkdy-Q" sheetId="1" r:id="rId2"/>
+    <sheet name="Sessions-Wkdy" sheetId="7" r:id="rId3"/>
+    <sheet name="Sessions-Plot" sheetId="8" r:id="rId4"/>
+    <sheet name="Wknd-Hr" sheetId="5" r:id="rId5"/>
+    <sheet name="Cnctd-Wknd-Q" sheetId="2" r:id="rId6"/>
+    <sheet name="Mon-Hr" sheetId="13" r:id="rId7"/>
+    <sheet name="JointPlot" sheetId="14" r:id="rId8"/>
+    <sheet name="Mon-Energy_Gauss_Fit" sheetId="9" r:id="rId9"/>
+    <sheet name="Mon-Duration_Gauss_Fit" sheetId="10" r:id="rId10"/>
+    <sheet name="Energy_Gauss_Fit" sheetId="11" r:id="rId11"/>
+    <sheet name="Duration_Gauss_Fit" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>-2_sigma</t>
   </si>
@@ -80,7 +84,16 @@
     <t>Session #</t>
   </si>
   <si>
-    <t>Based on MONDAY data for dfSLC</t>
+    <t>Weekdays: 18,085 sessions</t>
+  </si>
+  <si>
+    <t>Weekdays: 18,471 sessions</t>
+  </si>
+  <si>
+    <t>Based on MONDAY data for dfSLC: 3330 sessions</t>
+  </si>
+  <si>
+    <t>Based on MONDAY data for dfSLC: 3295 sessions</t>
   </si>
 </sst>
 </file>
@@ -189,6 +202,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -274,6 +288,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -518,6 +533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -623,6 +639,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -760,6 +777,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2806,6 +2824,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2924,6 +2943,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4087,6 +4107,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4206,6 +4227,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4286,6 +4308,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4399,6 +4422,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4733,6 +4757,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4837,6 +4862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5004,6 +5030,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6167,6 +6194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6286,6 +6314,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6366,6 +6395,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6395,6 +6425,604 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poisson Fitness Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mon-Hr'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Mon-Hr'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.15094339622641509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5471698113207544E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8867924528301886E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86792452830188682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1132075471698113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2641509433962268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3396226415094343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0377358490566042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0943396226415096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8867924528301887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8113207547169807</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2264150943396226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9056603773584904</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9245283018867925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4150943396226414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0754716981132075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8490566037735849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8490566037735849</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1698113207547169</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83018867924528306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84905660377358494</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62264150943396224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Mon-Hr'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.2036311854752581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10751156995372019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8511925952296192E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7184051263794945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4966180135279461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.817016731933073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.695977216091135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5646137415450339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5760056959772162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3456746173015306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4549661801352798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9298682805268781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1043075827696693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3716625133499463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1295834816660735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6735493058027764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9960840156639374</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0526877892488429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0843716625133499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85795656817372734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99608401566393734</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87646849412602346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E2C-4A83-8947-116B0F52F965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="311775952"/>
+        <c:axId val="311775296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="311775952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311775296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="311775296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Variance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311775952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6568,6 +7196,46 @@
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -9138,6 +9806,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9215,6 +10399,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103924</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6809524" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6780952" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9257,90 +10527,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>274618</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>135079</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>287318</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156851</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595594DE-356B-4B88-A2CE-931BB9030DFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317499</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5818C9-D85C-4A8B-A0B1-7876B466D656}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9433,7 +10619,443 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274618</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>287318</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156851</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595594DE-356B-4B88-A2CE-931BB9030DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5818C9-D85C-4A8B-A0B1-7876B466D656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148771</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595594DE-356B-4B88-A2CE-931BB9030DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447162</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="4104762" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="4009524" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447162</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="4104762" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351924</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4381500"/>
+          <a:ext cx="4009524" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447162</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="4104762" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351924</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="8572500"/>
+          <a:ext cx="4009524" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294781</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="12763500"/>
+          <a:ext cx="3952381" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>370971</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>37595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12763500"/>
+          <a:ext cx="4028571" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9552,7 +11174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9645,7 +11267,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9658,7 +11280,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="0"/>
+          <a:off x="6096000" y="190500"/>
           <a:ext cx="6780952" cy="5628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9970,8 +11592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JE25"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV25" sqref="AV25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29992,7 +31614,586 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2001"/>
   <sheetViews>
@@ -64027,523 +66228,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD25"/>
   <sheetViews>
@@ -72749,7 +74449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -73262,12 +74962,4369 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="57" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2">
+        <v>56</v>
+      </c>
+      <c r="N1" s="2">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2">
+        <v>70</v>
+      </c>
+      <c r="P1" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>84</v>
+      </c>
+      <c r="R1" s="2">
+        <v>91</v>
+      </c>
+      <c r="S1" s="2">
+        <v>98</v>
+      </c>
+      <c r="T1" s="2">
+        <v>105</v>
+      </c>
+      <c r="U1" s="2">
+        <v>112</v>
+      </c>
+      <c r="V1" s="2">
+        <v>119</v>
+      </c>
+      <c r="W1" s="2">
+        <v>126</v>
+      </c>
+      <c r="X1" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>140</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>168</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>196</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>203</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>210</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>245</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>252</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>259</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>266</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>273</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>280</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>294</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>301</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>308</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>315</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>322</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>329</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>336</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>343</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>350</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>357</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>AVERAGE(E2:BE2)</f>
+        <v>0.15094339622641509</v>
+      </c>
+      <c r="C2" s="1">
+        <f>_xlfn.VAR.P(E2:BE2)</f>
+        <v>0.2036311854752581</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B25" si="0">AVERAGE(E3:BE3)</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C25" si="1">_xlfn.VAR.P(E3:BE3)</f>
+        <v>0.10751156995372019</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8511925952296192E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7184051263794945</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1132075471698113</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4966180135279461</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <v>5</v>
+      </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>3</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <v>5</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>4</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>3</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2641509433962268</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>15.817016731933073</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>11</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>8</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
+        <v>13</v>
+      </c>
+      <c r="AM9">
+        <v>7</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>11</v>
+      </c>
+      <c r="AP9">
+        <v>10</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9">
+        <v>13</v>
+      </c>
+      <c r="AS9">
+        <v>12</v>
+      </c>
+      <c r="AT9">
+        <v>5</v>
+      </c>
+      <c r="AU9">
+        <v>7</v>
+      </c>
+      <c r="AV9">
+        <v>8</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9">
+        <v>2</v>
+      </c>
+      <c r="AZ9">
+        <v>2</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3396226415094343</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>13.695977216091135</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>13</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10">
+        <v>16</v>
+      </c>
+      <c r="AE10">
+        <v>15</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>12</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>11</v>
+      </c>
+      <c r="AK10">
+        <v>11</v>
+      </c>
+      <c r="AL10">
+        <v>11</v>
+      </c>
+      <c r="AM10">
+        <v>12</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>9</v>
+      </c>
+      <c r="AP10">
+        <v>9</v>
+      </c>
+      <c r="AQ10">
+        <v>12</v>
+      </c>
+      <c r="AR10">
+        <v>12</v>
+      </c>
+      <c r="AS10">
+        <v>16</v>
+      </c>
+      <c r="AT10">
+        <v>10</v>
+      </c>
+      <c r="AU10">
+        <v>13</v>
+      </c>
+      <c r="AV10">
+        <v>12</v>
+      </c>
+      <c r="AW10">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>7</v>
+      </c>
+      <c r="AZ10">
+        <v>4</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>7</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0377358490566042</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5646137415450339</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>14</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>6</v>
+      </c>
+      <c r="AI11">
+        <v>7</v>
+      </c>
+      <c r="AJ11">
+        <v>3</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
+      <c r="AN11">
+        <v>5</v>
+      </c>
+      <c r="AO11">
+        <v>2</v>
+      </c>
+      <c r="AP11">
+        <v>4</v>
+      </c>
+      <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AR11">
+        <v>3</v>
+      </c>
+      <c r="AS11">
+        <v>2</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>7</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
+      <c r="AZ11">
+        <v>4</v>
+      </c>
+      <c r="BA11">
+        <v>4</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0943396226415096</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5760056959772162</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>4</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>5</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>5</v>
+      </c>
+      <c r="AQ12">
+        <v>2</v>
+      </c>
+      <c r="AR12">
+        <v>3</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>5</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>3</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>2</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>3</v>
+      </c>
+      <c r="BD12">
+        <v>3</v>
+      </c>
+      <c r="BE12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8867924528301887</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3456746173015306</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <v>7</v>
+      </c>
+      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <v>6</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>6</v>
+      </c>
+      <c r="AQ13">
+        <v>4</v>
+      </c>
+      <c r="AR13">
+        <v>6</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>9</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>3</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>7</v>
+      </c>
+      <c r="BB13">
+        <v>7</v>
+      </c>
+      <c r="BC13">
+        <v>10</v>
+      </c>
+      <c r="BD13">
+        <v>5</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8113207547169807</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4549661801352798</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>6</v>
+      </c>
+      <c r="AH14">
+        <v>5</v>
+      </c>
+      <c r="AI14">
+        <v>7</v>
+      </c>
+      <c r="AJ14">
+        <v>7</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>7</v>
+      </c>
+      <c r="AN14">
+        <v>4</v>
+      </c>
+      <c r="AO14">
+        <v>9</v>
+      </c>
+      <c r="AP14">
+        <v>5</v>
+      </c>
+      <c r="AQ14">
+        <v>10</v>
+      </c>
+      <c r="AR14">
+        <v>8</v>
+      </c>
+      <c r="AS14">
+        <v>13</v>
+      </c>
+      <c r="AT14">
+        <v>5</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>6</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>5</v>
+      </c>
+      <c r="AY14">
+        <v>6</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>3</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>6</v>
+      </c>
+      <c r="BD14">
+        <v>4</v>
+      </c>
+      <c r="BE14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2264150943396226</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9298682805268781</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>4</v>
+      </c>
+      <c r="AF15">
+        <v>9</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15">
+        <v>4</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>5</v>
+      </c>
+      <c r="AL15">
+        <v>6</v>
+      </c>
+      <c r="AM15">
+        <v>5</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>9</v>
+      </c>
+      <c r="AP15">
+        <v>9</v>
+      </c>
+      <c r="AQ15">
+        <v>8</v>
+      </c>
+      <c r="AR15">
+        <v>2</v>
+      </c>
+      <c r="AS15">
+        <v>7</v>
+      </c>
+      <c r="AT15">
+        <v>5</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
+        <v>4</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
+      <c r="BB15">
+        <v>7</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9056603773584904</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1043075827696693</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <v>8</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>4</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>4</v>
+      </c>
+      <c r="AJ16">
+        <v>8</v>
+      </c>
+      <c r="AK16">
+        <v>8</v>
+      </c>
+      <c r="AL16">
+        <v>7</v>
+      </c>
+      <c r="AM16">
+        <v>4</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16">
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <v>2</v>
+      </c>
+      <c r="AR16">
+        <v>3</v>
+      </c>
+      <c r="AS16">
+        <v>6</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>6</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>2</v>
+      </c>
+      <c r="AZ16">
+        <v>2</v>
+      </c>
+      <c r="BA16">
+        <v>6</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>2</v>
+      </c>
+      <c r="BD16">
+        <v>3</v>
+      </c>
+      <c r="BE16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9245283018867925</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3716625133499463</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>6</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>6</v>
+      </c>
+      <c r="AH17">
+        <v>6</v>
+      </c>
+      <c r="AI17">
+        <v>6</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>5</v>
+      </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>5</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>7</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>6</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>5</v>
+      </c>
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>7</v>
+      </c>
+      <c r="AZ17">
+        <v>7</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>5</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4150943396226414</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1295834816660735</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>4</v>
+      </c>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+      <c r="AP18">
+        <v>5</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>9</v>
+      </c>
+      <c r="AS18">
+        <v>4</v>
+      </c>
+      <c r="AT18">
+        <v>4</v>
+      </c>
+      <c r="AU18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>4</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>7</v>
+      </c>
+      <c r="BC18">
+        <v>9</v>
+      </c>
+      <c r="BD18">
+        <v>3</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0754716981132075</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6735493058027764</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>3</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>6</v>
+      </c>
+      <c r="AQ19">
+        <v>8</v>
+      </c>
+      <c r="AR19">
+        <v>7</v>
+      </c>
+      <c r="AS19">
+        <v>7</v>
+      </c>
+      <c r="AT19">
+        <v>8</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>5</v>
+      </c>
+      <c r="AY19">
+        <v>5</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>7</v>
+      </c>
+      <c r="BC19">
+        <v>7</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8490566037735849</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9960840156639374</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>3</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>6</v>
+      </c>
+      <c r="AR20">
+        <v>5</v>
+      </c>
+      <c r="AS20">
+        <v>5</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>3</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AY20">
+        <v>4</v>
+      </c>
+      <c r="AZ20">
+        <v>3</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>7</v>
+      </c>
+      <c r="BC20">
+        <v>6</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8490566037735849</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0526877892488429</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>4</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>4</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>5</v>
+      </c>
+      <c r="AT21">
+        <v>4</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>3</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1698113207547169</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0843716625133499</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>3</v>
+      </c>
+      <c r="AF22">
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>4</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>4</v>
+      </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>2</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85795656817372734</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84905660377358494</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99608401566393734</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>2</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87646849412602346</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>3</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:BE25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73277,28 +79334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -73308,7 +79344,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
